--- a/tutorial1/Test.xlsx
+++ b/tutorial1/Test.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDB8EC3-0808-4AD7-8F1A-5DEC379007C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D58A54A7-56B3-44D8-AB5C-D771BC65C8EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="3045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>Test</t>
   </si>
@@ -340,16 +341,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
